--- a/input/events.2023.xlsx
+++ b/input/events.2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grr\Desktop\p\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\bemayr\outdoor-calendar\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{611F6F20-7AF3-4CD6-B4B0-CBBA19BC85B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2158DDBC-847F-4EC3-BA62-B1955A95CD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" state="hidden" r:id="rId1"/>
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="579">
   <si>
     <t>http://www.marmot-dark-mountains.com/ </t>
   </si>
@@ -2222,9 +2222,6 @@
   </si>
   <si>
     <t>Landesmeisterschaft Staffel/ mittel, Ried</t>
-  </si>
-  <si>
-    <t>T/S</t>
   </si>
   <si>
     <t>5./6./7. AC (Mittel + Sprint + Lang), Innsbruck</t>
@@ -2653,8 +2650,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2946,27 +2943,27 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3046875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="4"/>
       <c r="C1" s="3"/>
       <c r="J1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -3025,7 +3022,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -3052,7 +3049,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -3079,7 +3076,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
@@ -3106,7 +3103,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -3133,7 +3130,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -3160,7 +3157,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -3192,7 +3189,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>42</v>
       </c>
@@ -3222,7 +3219,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>123</v>
       </c>
@@ -3249,7 +3246,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>80</v>
       </c>
@@ -3278,7 +3275,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
         <v>121</v>
       </c>
@@ -3305,7 +3302,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
@@ -3334,7 +3331,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="17" t="s">
         <v>131</v>
       </c>
@@ -3361,7 +3358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
         <v>133</v>
       </c>
@@ -3388,7 +3385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="17" t="s">
         <v>119</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>78</v>
       </c>
@@ -3445,7 +3442,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17" t="s">
         <v>55</v>
       </c>
@@ -3477,7 +3474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -3507,7 +3504,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="17" t="s">
         <v>129</v>
       </c>
@@ -3534,7 +3531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -3564,7 +3561,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>107</v>
       </c>
@@ -3594,7 +3591,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
@@ -3626,7 +3623,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -3658,7 +3655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="17" t="s">
         <v>117</v>
       </c>
@@ -3685,7 +3682,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>102</v>
       </c>
@@ -3715,7 +3712,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
         <v>32</v>
       </c>
@@ -3742,7 +3739,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
         <v>70</v>
       </c>
@@ -3774,7 +3771,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -3806,7 +3803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="17" t="s">
         <v>115</v>
       </c>
@@ -3833,7 +3830,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -3863,7 +3860,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17" t="s">
         <v>84</v>
       </c>
@@ -3893,7 +3890,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="17" t="s">
         <v>88</v>
       </c>
@@ -3920,7 +3917,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17" t="s">
         <v>89</v>
       </c>
@@ -3950,7 +3947,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="17" t="s">
         <v>38</v>
       </c>
@@ -3980,7 +3977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
         <v>129</v>
       </c>
@@ -4007,7 +4004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="17" t="s">
         <v>98</v>
       </c>
@@ -4034,7 +4031,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="12" t="s">
         <v>39</v>
       </c>
@@ -4063,7 +4060,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="17" t="s">
         <v>92</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="17" t="s">
         <v>128</v>
       </c>
@@ -4117,7 +4114,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>37</v>
       </c>
@@ -4146,7 +4143,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="42" t="s">
         <v>134</v>
       </c>
@@ -4173,7 +4170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="42" t="s">
         <v>134</v>
       </c>
@@ -4200,7 +4197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="17" t="s">
         <v>54</v>
       </c>
@@ -4227,7 +4224,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="17" t="s">
         <v>67</v>
       </c>
@@ -4259,7 +4256,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="17" t="s">
         <v>129</v>
       </c>
@@ -4286,7 +4283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="17" t="s">
         <v>106</v>
       </c>
@@ -4313,7 +4310,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17" t="s">
         <v>61</v>
       </c>
@@ -4345,7 +4342,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="17" t="s">
         <v>135</v>
       </c>
@@ -4372,7 +4369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="17" t="s">
         <v>71</v>
       </c>
@@ -4401,7 +4398,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="17" t="s">
         <v>136</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="17" t="s">
         <v>75</v>
       </c>
@@ -4457,7 +4454,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="17" t="s">
         <v>41</v>
       </c>
@@ -4489,7 +4486,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="17" t="s">
         <v>138</v>
       </c>
@@ -4516,7 +4513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="17" t="s">
         <v>137</v>
       </c>
@@ -4543,7 +4540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="17" t="s">
         <v>60</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="17" t="s">
         <v>140</v>
       </c>
@@ -4597,7 +4594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="17" t="s">
         <v>134</v>
       </c>
@@ -4624,7 +4621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="17" t="s">
         <v>40</v>
       </c>
@@ -4653,7 +4650,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="17" t="s">
         <v>46</v>
       </c>
@@ -4682,7 +4679,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="17" t="s">
         <v>62</v>
       </c>
@@ -4711,7 +4708,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="17" t="s">
         <v>112</v>
       </c>
@@ -4820,27 +4817,27 @@
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.3046875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="55"/>
+    <col min="5" max="5" width="12.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3828125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3828125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="4"/>
       <c r="C1" s="3"/>
       <c r="I1" s="55" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
@@ -4869,7 +4866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="64" t="s">
         <v>171</v>
       </c>
@@ -4896,7 +4893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="48" t="s">
         <v>78</v>
       </c>
@@ -4925,7 +4922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="48" t="s">
         <v>52</v>
       </c>
@@ -4954,7 +4951,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="48" t="s">
         <v>145</v>
       </c>
@@ -4983,7 +4980,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="65" t="s">
         <v>158</v>
       </c>
@@ -5012,7 +5009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="48" t="s">
         <v>38</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="64" t="s">
         <v>157</v>
       </c>
@@ -5070,7 +5067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="64" t="s">
         <v>159</v>
       </c>
@@ -5097,7 +5094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="65" t="s">
         <v>155</v>
       </c>
@@ -5124,7 +5121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="57" t="s">
         <v>42</v>
       </c>
@@ -5151,7 +5148,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="57" t="s">
         <v>34</v>
       </c>
@@ -5178,7 +5175,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="64" t="s">
         <v>224</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="57" t="s">
         <v>147</v>
       </c>
@@ -5234,7 +5231,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="57" t="s">
         <v>59</v>
       </c>
@@ -5261,7 +5258,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="64" t="s">
         <v>160</v>
       </c>
@@ -5288,7 +5285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="65" t="s">
         <v>156</v>
       </c>
@@ -5315,7 +5312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="57" t="s">
         <v>192</v>
       </c>
@@ -5342,7 +5339,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="64" t="s">
         <v>172</v>
       </c>
@@ -5369,7 +5366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="57" t="s">
         <v>173</v>
       </c>
@@ -5398,7 +5395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="64" t="s">
         <v>55</v>
       </c>
@@ -5425,7 +5422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="57" t="s">
         <v>206</v>
       </c>
@@ -5452,7 +5449,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="57" t="s">
         <v>230</v>
       </c>
@@ -5479,7 +5476,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="57" t="s">
         <v>84</v>
       </c>
@@ -5506,7 +5503,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="57" t="s">
         <v>163</v>
       </c>
@@ -5533,7 +5530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="57" t="s">
         <v>75</v>
       </c>
@@ -5560,7 +5557,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="57" t="s">
         <v>70</v>
       </c>
@@ -5587,7 +5584,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="57" t="s">
         <v>152</v>
       </c>
@@ -5614,7 +5611,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="64" t="s">
         <v>157</v>
       </c>
@@ -5641,7 +5638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="64" t="s">
         <v>161</v>
       </c>
@@ -5668,7 +5665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="57" t="s">
         <v>207</v>
       </c>
@@ -5695,7 +5692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="57" t="s">
         <v>239</v>
       </c>
@@ -5722,7 +5719,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="57" t="s">
         <v>117</v>
       </c>
@@ -5749,7 +5746,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="65" t="s">
         <v>225</v>
       </c>
@@ -5776,7 +5773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="57" t="s">
         <v>119</v>
       </c>
@@ -5803,7 +5800,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="57" t="s">
         <v>175</v>
       </c>
@@ -5830,7 +5827,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="57" t="s">
         <v>88</v>
       </c>
@@ -5857,7 +5854,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="57" t="s">
         <v>188</v>
       </c>
@@ -5884,7 +5881,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="57" t="s">
         <v>182</v>
       </c>
@@ -5911,7 +5908,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="57" t="s">
         <v>115</v>
       </c>
@@ -5938,7 +5935,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="57" t="s">
         <v>180</v>
       </c>
@@ -5965,7 +5962,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="64" t="s">
         <v>247</v>
       </c>
@@ -5992,7 +5989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="57" t="s">
         <v>138</v>
       </c>
@@ -6021,7 +6018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="57" t="s">
         <v>229</v>
       </c>
@@ -6048,7 +6045,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="57" t="s">
         <v>210</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="57" t="s">
         <v>220</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="64" t="s">
         <v>246</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="57" t="s">
         <v>92</v>
       </c>
@@ -6156,7 +6153,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="57" t="s">
         <v>242</v>
       </c>
@@ -6183,7 +6180,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="57" t="s">
         <v>177</v>
       </c>
@@ -6210,7 +6207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="57" t="s">
         <v>189</v>
       </c>
@@ -6237,7 +6234,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="57" t="s">
         <v>143</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="57" t="s">
         <v>60</v>
       </c>
@@ -6291,7 +6288,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="57" t="s">
         <v>164</v>
       </c>
@@ -6318,7 +6315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="64" t="s">
         <v>203</v>
       </c>
@@ -6345,7 +6342,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="57" t="s">
         <v>162</v>
       </c>
@@ -6372,7 +6369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="57" t="s">
         <v>191</v>
       </c>
@@ -6399,7 +6396,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="65" t="s">
         <v>226</v>
       </c>
@@ -6426,7 +6423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="57" t="s">
         <v>71</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="64" t="s">
         <v>37</v>
       </c>
@@ -6480,7 +6477,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="57" t="s">
         <v>227</v>
       </c>
@@ -6507,7 +6504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="64" t="s">
         <v>165</v>
       </c>
@@ -6534,7 +6531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="57" t="s">
         <v>221</v>
       </c>
@@ -6561,7 +6558,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="64" t="s">
         <v>153</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="57" t="s">
         <v>61</v>
       </c>
@@ -6617,7 +6614,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="64" t="s">
         <v>154</v>
       </c>
@@ -6644,7 +6641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="57" t="s">
         <v>185</v>
       </c>
@@ -6671,7 +6668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="57" t="s">
         <v>187</v>
       </c>
@@ -6698,7 +6695,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="48" t="s">
         <v>232</v>
       </c>
@@ -6725,7 +6722,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="65" t="s">
         <v>228</v>
       </c>
@@ -6752,7 +6749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="57" t="s">
         <v>109</v>
       </c>
@@ -6779,7 +6776,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="57" t="s">
         <v>269</v>
       </c>
@@ -6806,7 +6803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="57" t="s">
         <v>252</v>
       </c>
@@ -6833,7 +6830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="57" t="s">
         <v>40</v>
       </c>
@@ -6860,7 +6857,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="57" t="s">
         <v>194</v>
       </c>
@@ -6887,7 +6884,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="64" t="s">
         <v>195</v>
       </c>
@@ -6914,7 +6911,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="64" t="s">
         <v>338</v>
       </c>
@@ -6941,7 +6938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="57" t="s">
         <v>236</v>
       </c>
@@ -6970,7 +6967,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="57" t="s">
         <v>50</v>
       </c>
@@ -6999,7 +6996,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="57" t="s">
         <v>62</v>
       </c>
@@ -7026,7 +7023,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="57" t="s">
         <v>268</v>
       </c>
@@ -7055,7 +7052,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="57" t="s">
         <v>337</v>
       </c>
@@ -7082,7 +7079,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="57" t="s">
         <v>339</v>
       </c>
@@ -7109,7 +7106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="17" t="s">
         <v>289</v>
       </c>
@@ -7136,82 +7133,82 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B88" s="49" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B89" s="49" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B90" s="49" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B91" s="29" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B92" s="29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B93" s="29" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B94" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B95" s="29" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B96" s="29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B97" s="29" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B98" s="29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B99" s="29" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B100" s="29" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B101" s="29" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B102" s="29" t="s">
         <v>263</v>
       </c>
@@ -7336,17 +7333,17 @@
       <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.53515625" customWidth="1"/>
     <col min="3" max="3" width="16" style="67" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="47" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="72" t="s">
         <v>30</v>
       </c>
@@ -7378,7 +7375,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="64" t="s">
         <v>306</v>
       </c>
@@ -7408,7 +7405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="57" t="s">
         <v>277</v>
       </c>
@@ -7438,7 +7435,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="57" t="s">
         <v>271</v>
       </c>
@@ -7468,7 +7465,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="57" t="s">
         <v>301</v>
       </c>
@@ -7498,7 +7495,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="64" t="s">
         <v>307</v>
       </c>
@@ -7528,7 +7525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="64" t="s">
         <v>256</v>
       </c>
@@ -7558,7 +7555,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="57" t="s">
         <v>299</v>
       </c>
@@ -7588,7 +7585,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="57" t="s">
         <v>380</v>
       </c>
@@ -7618,7 +7615,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="57" t="s">
         <v>255</v>
       </c>
@@ -7650,7 +7647,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="57" t="s">
         <v>393</v>
       </c>
@@ -7680,7 +7677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="57" t="s">
         <v>398</v>
       </c>
@@ -7710,7 +7707,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="57" t="s">
         <v>281</v>
       </c>
@@ -7742,7 +7739,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="57" t="s">
         <v>329</v>
       </c>
@@ -7772,7 +7769,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="57" t="s">
         <v>304</v>
       </c>
@@ -7802,7 +7799,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="57" t="s">
         <v>341</v>
       </c>
@@ -7832,7 +7829,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="57" t="s">
         <v>109</v>
       </c>
@@ -7862,7 +7859,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="64" t="s">
         <v>394</v>
       </c>
@@ -7892,7 +7889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="57" t="s">
         <v>344</v>
       </c>
@@ -7922,7 +7919,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="57" t="s">
         <v>408</v>
       </c>
@@ -7952,7 +7949,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="64" t="s">
         <v>418</v>
       </c>
@@ -7982,7 +7979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="57" t="s">
         <v>347</v>
       </c>
@@ -8012,7 +8009,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="57" t="s">
         <v>311</v>
       </c>
@@ -8042,7 +8039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="57" t="s">
         <v>388</v>
       </c>
@@ -8072,7 +8069,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="64" t="s">
         <v>315</v>
       </c>
@@ -8102,7 +8099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="57" t="s">
         <v>406</v>
       </c>
@@ -8132,7 +8129,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="64" t="s">
         <v>158</v>
       </c>
@@ -8162,7 +8159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="57" t="s">
         <v>334</v>
       </c>
@@ -8192,7 +8189,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="64" t="s">
         <v>155</v>
       </c>
@@ -8222,7 +8219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="57" t="s">
         <v>364</v>
       </c>
@@ -8252,7 +8249,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="57" t="s">
         <v>327</v>
       </c>
@@ -8282,7 +8279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="57" t="s">
         <v>367</v>
       </c>
@@ -8312,7 +8309,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="64" t="s">
         <v>156</v>
       </c>
@@ -8342,7 +8339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="57" t="s">
         <v>326</v>
       </c>
@@ -8372,7 +8369,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="57" t="s">
         <v>293</v>
       </c>
@@ -8402,7 +8399,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="57" t="s">
         <v>333</v>
       </c>
@@ -8432,7 +8429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="64" t="s">
         <v>309</v>
       </c>
@@ -8462,7 +8459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="64" t="s">
         <v>38</v>
       </c>
@@ -8492,7 +8489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="64" t="s">
         <v>314</v>
       </c>
@@ -8522,7 +8519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="64" t="s">
         <v>316</v>
       </c>
@@ -8552,7 +8549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="57" t="s">
         <v>284</v>
       </c>
@@ -8582,7 +8579,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="57" t="s">
         <v>342</v>
       </c>
@@ -8612,7 +8609,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="57" t="s">
         <v>272</v>
       </c>
@@ -8644,7 +8641,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="64" t="s">
         <v>321</v>
       </c>
@@ -8674,7 +8671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="57" t="s">
         <v>57</v>
       </c>
@@ -8704,7 +8701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="57" t="s">
         <v>382</v>
       </c>
@@ -8734,7 +8731,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="57" t="s">
         <v>160</v>
       </c>
@@ -8764,7 +8761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="57" t="s">
         <v>382</v>
       </c>
@@ -8794,7 +8791,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="57" t="s">
         <v>434</v>
       </c>
@@ -8824,7 +8821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="57" t="s">
         <v>412</v>
       </c>
@@ -8854,7 +8851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="57" t="s">
         <v>258</v>
       </c>
@@ -8884,7 +8881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="57" t="s">
         <v>363</v>
       </c>
@@ -8914,7 +8911,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="64" t="s">
         <v>432</v>
       </c>
@@ -8944,7 +8941,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="64" t="s">
         <v>433</v>
       </c>
@@ -8974,7 +8971,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="57" t="s">
         <v>285</v>
       </c>
@@ -9004,7 +9001,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="64" t="s">
         <v>417</v>
       </c>
@@ -9034,7 +9031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="57" t="s">
         <v>376</v>
       </c>
@@ -9064,7 +9061,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="57" t="s">
         <v>260</v>
       </c>
@@ -9094,7 +9091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="64" t="s">
         <v>161</v>
       </c>
@@ -9124,7 +9121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="57" t="s">
         <v>330</v>
       </c>
@@ -9154,7 +9151,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="57" t="s">
         <v>416</v>
       </c>
@@ -9184,7 +9181,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="57" t="s">
         <v>265</v>
       </c>
@@ -9214,7 +9211,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="57" t="s">
         <v>445</v>
       </c>
@@ -9244,7 +9241,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="57" t="s">
         <v>287</v>
       </c>
@@ -9274,7 +9271,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="57" t="s">
         <v>369</v>
       </c>
@@ -9304,7 +9301,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="57" t="s">
         <v>378</v>
       </c>
@@ -9334,7 +9331,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="57" t="s">
         <v>414</v>
       </c>
@@ -9364,7 +9361,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="57" t="s">
         <v>403</v>
       </c>
@@ -9394,7 +9391,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="64" t="s">
         <v>308</v>
       </c>
@@ -9424,7 +9421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="57" t="s">
         <v>401</v>
       </c>
@@ -9454,7 +9451,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="57" t="s">
         <v>210</v>
       </c>
@@ -9484,7 +9481,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="57" t="s">
         <v>177</v>
       </c>
@@ -9514,7 +9511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="64" t="s">
         <v>275</v>
       </c>
@@ -9544,7 +9541,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="57" t="s">
         <v>290</v>
       </c>
@@ -9574,7 +9571,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="57" t="s">
         <v>310</v>
       </c>
@@ -9604,7 +9601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="57" t="s">
         <v>438</v>
       </c>
@@ -9634,7 +9631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="57" t="s">
         <v>295</v>
       </c>
@@ -9664,7 +9661,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="64" t="s">
         <v>317</v>
       </c>
@@ -9694,7 +9691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="64" t="s">
         <v>312</v>
       </c>
@@ -9724,7 +9721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="64" t="s">
         <v>162</v>
       </c>
@@ -9754,7 +9751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="64" t="s">
         <v>153</v>
       </c>
@@ -9784,7 +9781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="75" t="s">
         <v>331</v>
       </c>
@@ -9814,7 +9811,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="64" t="s">
         <v>437</v>
       </c>
@@ -9844,7 +9841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="64" t="s">
         <v>313</v>
       </c>
@@ -9874,7 +9871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="57" t="s">
         <v>185</v>
       </c>
@@ -9904,7 +9901,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="57" t="s">
         <v>461</v>
       </c>
@@ -9934,7 +9931,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="57" t="s">
         <v>342</v>
       </c>
@@ -9964,7 +9961,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="57" t="s">
         <v>441</v>
       </c>
@@ -9994,7 +9991,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="57" t="s">
         <v>297</v>
       </c>
@@ -10024,7 +10021,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="64" t="s">
         <v>154</v>
       </c>
@@ -10054,7 +10051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="77" t="s">
         <v>389</v>
       </c>
@@ -10084,7 +10081,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="77" t="s">
         <v>318</v>
       </c>
@@ -10114,7 +10111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="77" t="s">
         <v>319</v>
       </c>
@@ -10144,7 +10141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="77" t="s">
         <v>453</v>
       </c>
@@ -10174,7 +10171,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="77" t="s">
         <v>422</v>
       </c>
@@ -10204,7 +10201,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="77" t="s">
         <v>323</v>
       </c>
@@ -10234,7 +10231,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="77" t="s">
         <v>447</v>
       </c>
@@ -10264,7 +10261,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="77" t="s">
         <v>442</v>
       </c>
@@ -10294,7 +10291,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="64" t="s">
         <v>463</v>
       </c>
@@ -10324,7 +10321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="77" t="s">
         <v>468</v>
       </c>
@@ -10354,7 +10351,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="57" t="s">
         <v>236</v>
       </c>
@@ -10386,7 +10383,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="78" t="s">
         <v>481</v>
       </c>
@@ -10416,7 +10413,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="64" t="s">
         <v>338</v>
       </c>
@@ -10446,7 +10443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="75" t="s">
         <v>464</v>
       </c>
@@ -10476,7 +10473,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="64" t="s">
         <v>479</v>
       </c>
@@ -10506,7 +10503,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="75" t="s">
         <v>431</v>
       </c>
@@ -10536,7 +10533,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="64" t="s">
         <v>339</v>
       </c>
@@ -10566,15 +10563,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B109" s="40"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B110" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>350</v>
       </c>
@@ -10583,7 +10580,7 @@
       </c>
       <c r="C111" s="68"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>350</v>
       </c>
@@ -10592,7 +10589,7 @@
       </c>
       <c r="C112" s="68"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>351</v>
       </c>
@@ -10601,7 +10598,7 @@
       </c>
       <c r="C113" s="68"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>352</v>
       </c>
@@ -10610,7 +10607,7 @@
       </c>
       <c r="C114" s="69"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>353</v>
       </c>
@@ -10619,7 +10616,7 @@
       </c>
       <c r="C115" s="69"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>350</v>
       </c>
@@ -10628,7 +10625,7 @@
       </c>
       <c r="C116" s="69"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>354</v>
       </c>
@@ -10637,7 +10634,7 @@
       </c>
       <c r="C117" s="69"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>355</v>
       </c>
@@ -10646,7 +10643,7 @@
       </c>
       <c r="C118" s="69"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>356</v>
       </c>
@@ -10655,7 +10652,7 @@
       </c>
       <c r="C119" s="69"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>354</v>
       </c>
@@ -10664,7 +10661,7 @@
       </c>
       <c r="C120" s="69"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>357</v>
       </c>
@@ -10673,7 +10670,7 @@
       </c>
       <c r="C121" s="69"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>358</v>
       </c>
@@ -10682,7 +10679,7 @@
       </c>
       <c r="C122" s="69"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>354</v>
       </c>
@@ -10691,7 +10688,7 @@
       </c>
       <c r="C123" s="69"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>359</v>
       </c>
@@ -10700,7 +10697,7 @@
       </c>
       <c r="C124" s="69"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>360</v>
       </c>
@@ -10709,7 +10706,7 @@
       </c>
       <c r="C125" s="69"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>424</v>
       </c>
@@ -10718,7 +10715,7 @@
       </c>
       <c r="C126" s="69"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>361</v>
       </c>
@@ -10727,7 +10724,7 @@
       </c>
       <c r="C127" s="69"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>355</v>
       </c>
@@ -10736,7 +10733,7 @@
       </c>
       <c r="C128" s="69"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>362</v>
       </c>
@@ -10745,7 +10742,7 @@
       </c>
       <c r="C129" s="70"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>349</v>
       </c>
@@ -10754,7 +10751,7 @@
       </c>
       <c r="C130" s="70"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>384</v>
       </c>
@@ -10762,7 +10759,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>385</v>
       </c>
@@ -10770,7 +10767,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>391</v>
       </c>
@@ -10778,7 +10775,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>427</v>
       </c>
@@ -10786,7 +10783,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>450</v>
       </c>
@@ -10794,7 +10791,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>452</v>
       </c>
@@ -10958,22 +10955,22 @@
   <dimension ref="A2:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD4"/>
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.53515625" customWidth="1"/>
+    <col min="2" max="2" width="78.53515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="67" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" customWidth="1"/>
+    <col min="5" max="5" width="11.84375" customWidth="1"/>
+    <col min="8" max="8" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.84375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="47" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="72" t="s">
         <v>30</v>
       </c>
@@ -11008,12 +11005,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="57" t="s">
         <v>543</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C3" s="79" t="s">
         <v>372</v>
@@ -11041,7 +11038,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="57" t="s">
         <v>306</v>
       </c>
@@ -11074,7 +11071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="57" t="s">
         <v>486</v>
       </c>
@@ -11107,7 +11104,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="57" t="s">
         <v>514</v>
       </c>
@@ -11140,12 +11137,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>565</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>566</v>
       </c>
       <c r="C7" s="71" t="s">
         <v>371</v>
@@ -11171,12 +11168,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>578</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>579</v>
       </c>
       <c r="C8" s="71" t="s">
         <v>371</v>
@@ -11202,7 +11199,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="57" t="s">
         <v>256</v>
       </c>
@@ -11235,7 +11232,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="57" t="s">
         <v>307</v>
       </c>
@@ -11268,7 +11265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="57" t="s">
         <v>255</v>
       </c>
@@ -11301,7 +11298,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="57" t="s">
         <v>487</v>
       </c>
@@ -11334,12 +11331,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="57" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C13" s="71" t="s">
         <v>371</v>
@@ -11365,12 +11362,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C14" s="79" t="s">
         <v>371</v>
@@ -11398,12 +11395,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>371</v>
@@ -11429,7 +11426,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="57" t="s">
         <v>329</v>
       </c>
@@ -11462,7 +11459,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="57" t="s">
         <v>533</v>
       </c>
@@ -11495,7 +11492,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="57" t="s">
         <v>327</v>
       </c>
@@ -11528,9 +11525,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>218</v>
@@ -11561,7 +11558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="57" t="s">
         <v>510</v>
       </c>
@@ -11594,7 +11591,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="57" t="s">
         <v>482</v>
       </c>
@@ -11627,7 +11624,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="57" t="s">
         <v>495</v>
       </c>
@@ -11660,7 +11657,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="57" t="s">
         <v>155</v>
       </c>
@@ -11693,12 +11690,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="57" t="s">
         <v>542</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C24" s="79" t="s">
         <v>371</v>
@@ -11726,7 +11723,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="57" t="s">
         <v>158</v>
       </c>
@@ -11759,7 +11756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="57" t="s">
         <v>156</v>
       </c>
@@ -11792,9 +11789,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B27" s="49" t="s">
         <v>218</v>
@@ -11825,7 +11822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="57" t="s">
         <v>511</v>
       </c>
@@ -11858,7 +11855,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="57" t="s">
         <v>333</v>
       </c>
@@ -11891,7 +11888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="57" t="s">
         <v>38</v>
       </c>
@@ -11926,7 +11923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="57" t="s">
         <v>309</v>
       </c>
@@ -11959,7 +11956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="57" t="s">
         <v>474</v>
       </c>
@@ -11992,7 +11989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="57" t="s">
         <v>515</v>
       </c>
@@ -12009,7 +12006,7 @@
         <v>99</v>
       </c>
       <c r="F33" s="51">
-        <v>45069</v>
+        <v>45100</v>
       </c>
       <c r="G33" s="51">
         <v>45102</v>
@@ -12025,18 +12022,18 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B34" s="49" t="s">
         <v>218</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>21</v>
@@ -12058,7 +12055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="57" t="s">
         <v>321</v>
       </c>
@@ -12091,12 +12088,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="57" t="s">
         <v>547</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C36" s="79" t="s">
         <v>373</v>
@@ -12124,7 +12121,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="57" t="s">
         <v>192</v>
       </c>
@@ -12157,7 +12154,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="57" t="s">
         <v>517</v>
       </c>
@@ -12190,7 +12187,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="57" t="s">
         <v>160</v>
       </c>
@@ -12223,7 +12220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="57" t="s">
         <v>539</v>
       </c>
@@ -12256,7 +12253,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="57" t="s">
         <v>526</v>
       </c>
@@ -12289,7 +12286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="57" t="s">
         <v>55</v>
       </c>
@@ -12322,7 +12319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="57" t="s">
         <v>529</v>
       </c>
@@ -12355,7 +12352,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="57" t="s">
         <v>558</v>
       </c>
@@ -12366,7 +12363,7 @@
         <v>371</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>559</v>
+        <v>97</v>
       </c>
       <c r="E44" s="52" t="s">
         <v>21</v>
@@ -12388,7 +12385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="57" t="s">
         <v>537</v>
       </c>
@@ -12421,7 +12418,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="57" t="s">
         <v>549</v>
       </c>
@@ -12454,7 +12451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="57" t="s">
         <v>500</v>
       </c>
@@ -12487,7 +12484,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="57" t="s">
         <v>531</v>
       </c>
@@ -12520,7 +12517,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="57" t="s">
         <v>524</v>
       </c>
@@ -12553,7 +12550,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="57" t="s">
         <v>207</v>
       </c>
@@ -12586,7 +12583,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="57" t="s">
         <v>550</v>
       </c>
@@ -12619,7 +12616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="57" t="s">
         <v>548</v>
       </c>
@@ -12652,7 +12649,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="57" t="s">
         <v>491</v>
       </c>
@@ -12685,7 +12682,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="57" t="s">
         <v>493</v>
       </c>
@@ -12718,7 +12715,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="57" t="s">
         <v>502</v>
       </c>
@@ -12751,7 +12748,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="57" t="s">
         <v>470</v>
       </c>
@@ -12784,7 +12781,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="57" t="s">
         <v>490</v>
       </c>
@@ -12817,7 +12814,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="57" t="s">
         <v>522</v>
       </c>
@@ -12850,7 +12847,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="57" t="s">
         <v>206</v>
       </c>
@@ -12883,7 +12880,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="57" t="s">
         <v>551</v>
       </c>
@@ -12916,7 +12913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="57" t="s">
         <v>504</v>
       </c>
@@ -12949,7 +12946,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="57" t="s">
         <v>210</v>
       </c>
@@ -12982,7 +12979,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="57" t="s">
         <v>290</v>
       </c>
@@ -13015,7 +13012,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="57" t="s">
         <v>506</v>
       </c>
@@ -13048,7 +13045,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="57" t="s">
         <v>553</v>
       </c>
@@ -13081,7 +13078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="57" t="s">
         <v>473</v>
       </c>
@@ -13114,7 +13111,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="57" t="s">
         <v>552</v>
       </c>
@@ -13147,7 +13144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="57" t="s">
         <v>554</v>
       </c>
@@ -13180,7 +13177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="57" t="s">
         <v>557</v>
       </c>
@@ -13213,7 +13210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="57" t="s">
         <v>555</v>
       </c>
@@ -13246,7 +13243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="57" t="s">
         <v>541</v>
       </c>
@@ -13279,12 +13276,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="57" t="s">
         <v>544</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C72" s="79" t="s">
         <v>371</v>
@@ -13312,7 +13309,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="57" t="s">
         <v>556</v>
       </c>
@@ -13345,7 +13342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="57" t="s">
         <v>507</v>
       </c>
@@ -13378,12 +13375,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="57" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C75" s="79" t="s">
         <v>371</v>
@@ -13411,7 +13408,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="57" t="s">
         <v>535</v>
       </c>
@@ -13444,7 +13441,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="57"/>
       <c r="B77" s="49"/>
       <c r="C77" s="71"/>
@@ -13457,7 +13454,7 @@
       <c r="J77" s="21"/>
       <c r="K77" s="52"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="57"/>
       <c r="B78" s="49"/>
       <c r="C78" s="71"/>
@@ -13470,7 +13467,7 @@
       <c r="J78" s="21"/>
       <c r="K78" s="52"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="57"/>
       <c r="B79" s="49"/>
       <c r="C79" s="71"/>
@@ -13483,7 +13480,7 @@
       <c r="J79" s="21"/>
       <c r="K79" s="52"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="57"/>
       <c r="B80" s="49"/>
       <c r="C80" s="71"/>
@@ -13496,7 +13493,7 @@
       <c r="J80" s="21"/>
       <c r="K80" s="52"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="57"/>
       <c r="B81" s="49"/>
       <c r="C81" s="71"/>
@@ -13509,7 +13506,7 @@
       <c r="J81" s="21"/>
       <c r="K81" s="52"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="57"/>
       <c r="B82" s="49"/>
       <c r="C82" s="71"/>
@@ -13522,15 +13519,15 @@
       <c r="J82" s="21"/>
       <c r="K82" s="52"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B83" s="40"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B84" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>350</v>
       </c>
@@ -13539,7 +13536,7 @@
       </c>
       <c r="C85" s="68"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>350</v>
       </c>
@@ -13548,7 +13545,7 @@
       </c>
       <c r="C86" s="68"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>351</v>
       </c>
@@ -13557,7 +13554,7 @@
       </c>
       <c r="C87" s="68"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>352</v>
       </c>
@@ -13566,7 +13563,7 @@
       </c>
       <c r="C88" s="69"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -13575,7 +13572,7 @@
       </c>
       <c r="C89" s="69"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>350</v>
       </c>
@@ -13584,7 +13581,7 @@
       </c>
       <c r="C90" s="69"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -13593,7 +13590,7 @@
       </c>
       <c r="C91" s="69"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>498</v>
       </c>
@@ -13602,7 +13599,7 @@
       </c>
       <c r="C92" s="69"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>354</v>
       </c>
@@ -13611,7 +13608,7 @@
       </c>
       <c r="C93" s="69"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>354</v>
       </c>
@@ -13620,7 +13617,7 @@
       </c>
       <c r="C94" s="69"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>356</v>
       </c>
@@ -13629,7 +13626,7 @@
       </c>
       <c r="C95" s="69"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>357</v>
       </c>
@@ -13638,7 +13635,7 @@
       </c>
       <c r="C96" s="69"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>358</v>
       </c>
@@ -13647,7 +13644,7 @@
       </c>
       <c r="C97" s="69"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>354</v>
       </c>
@@ -13656,7 +13653,7 @@
       </c>
       <c r="C98" s="69"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>359</v>
       </c>
@@ -13665,7 +13662,7 @@
       </c>
       <c r="C99" s="69"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>360</v>
       </c>
@@ -13674,7 +13671,7 @@
       </c>
       <c r="C100" s="69"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>424</v>
       </c>
@@ -13683,7 +13680,7 @@
       </c>
       <c r="C101" s="69"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>361</v>
       </c>
@@ -13692,7 +13689,7 @@
       </c>
       <c r="C102" s="69"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>355</v>
       </c>
@@ -13701,7 +13698,7 @@
       </c>
       <c r="C103" s="69"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>362</v>
       </c>
@@ -13710,7 +13707,7 @@
       </c>
       <c r="C104" s="70"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>349</v>
       </c>
@@ -13719,7 +13716,7 @@
       </c>
       <c r="C105" s="70"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>384</v>
       </c>
@@ -13727,7 +13724,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>385</v>
       </c>
@@ -13735,7 +13732,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>391</v>
       </c>
@@ -13743,7 +13740,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>477</v>
       </c>
@@ -13751,7 +13748,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>427</v>
       </c>
@@ -13759,7 +13756,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>450</v>
       </c>
@@ -13767,7 +13764,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>452</v>
       </c>
@@ -13775,12 +13772,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
